--- a/게임 플레이 목록_241002.xlsx
+++ b/게임 플레이 목록_241002.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\totoh\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B1E296D-7B18-4FE3-815B-2F913B09F2F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4210F072-B208-4509-BD7D-90DEC48D3CCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6468" yWindow="0" windowWidth="16668" windowHeight="13056" xr2:uid="{8485B22B-FAE5-4015-8A8F-C4337D68386A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{8485B22B-FAE5-4015-8A8F-C4337D68386A}"/>
   </bookViews>
   <sheets>
     <sheet name="게임 플레이 목록" sheetId="1" r:id="rId1"/>
@@ -1881,7 +1881,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>63레벨, 이브(코드: 페일리스)
+    <t>69레벨, 이브(코드: 페일리스)
 샌더 마을 진행 중</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2235,7 +2235,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2365,6 +2365,9 @@
     <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2418,12 +2421,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2800,30 +2797,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1288A661-A3D5-4485-A1C4-91765797A11D}">
   <dimension ref="A1:K69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I17" sqref="I17"/>
+      <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="15.75" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.8984375" style="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.875" style="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.5" style="16" customWidth="1"/>
-    <col min="3" max="3" width="9.59765625" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.625" style="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.5" style="17" customWidth="1"/>
     <col min="5" max="5" width="6.5" style="16" customWidth="1"/>
-    <col min="6" max="6" width="8.69921875" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.3984375" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.59765625" style="33" customWidth="1"/>
-    <col min="9" max="9" width="39.69921875" style="18" customWidth="1"/>
+    <col min="6" max="6" width="8.75" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.375" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.625" style="33" customWidth="1"/>
+    <col min="9" max="9" width="39.75" style="18" customWidth="1"/>
     <col min="10" max="10" width="34.5" style="18" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="30.69921875" style="34" customWidth="1"/>
-    <col min="12" max="13" width="9.19921875" style="1"/>
-    <col min="14" max="14" width="33.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.19921875" style="1"/>
+    <col min="11" max="11" width="30.75" style="34" customWidth="1"/>
+    <col min="12" max="13" width="9.25" style="1"/>
+    <col min="14" max="14" width="33.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.6" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" ht="16.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="22"/>
@@ -2836,7 +2833,7 @@
       <c r="J1" s="4"/>
       <c r="K1" s="29"/>
     </row>
-    <row r="2" spans="1:11" ht="15.6" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" ht="16.5" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="22"/>
       <c r="C2" s="39"/>
@@ -2857,7 +2854,7 @@
       </c>
       <c r="K2" s="30"/>
     </row>
-    <row r="3" spans="1:11" ht="15.6" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" ht="16.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="22"/>
       <c r="C3" s="39"/>
@@ -2878,7 +2875,7 @@
       </c>
       <c r="K3" s="22"/>
     </row>
-    <row r="4" spans="1:11" ht="15.6" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" ht="16.5" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="22"/>
       <c r="C4" s="39"/>
@@ -2898,7 +2895,7 @@
       </c>
       <c r="K4" s="22"/>
     </row>
-    <row r="5" spans="1:11" ht="15.6" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" ht="16.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="22"/>
       <c r="C5" s="39"/>
@@ -2913,7 +2910,7 @@
       <c r="J5" s="9"/>
       <c r="K5" s="22"/>
     </row>
-    <row r="6" spans="1:11" ht="16.2" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" ht="17.25" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="22"/>
       <c r="C6" s="22"/>
@@ -2928,7 +2925,7 @@
       <c r="J6" s="22"/>
       <c r="K6" s="22"/>
     </row>
-    <row r="7" spans="1:11" ht="15.6" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" ht="16.5" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="2"/>
@@ -2941,7 +2938,7 @@
       <c r="J7" s="11"/>
       <c r="K7" s="29"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>53</v>
       </c>
@@ -2974,14 +2971,14 @@
       </c>
       <c r="K8" s="35"/>
     </row>
-    <row r="9" spans="1:11" ht="240" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" ht="252" x14ac:dyDescent="0.3">
       <c r="A9" s="16">
         <v>1</v>
       </c>
-      <c r="B9" s="58" t="s">
+      <c r="B9" s="59" t="s">
         <v>157</v>
       </c>
-      <c r="C9" s="58" t="s">
+      <c r="C9" s="59" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="17" t="s">
@@ -3003,12 +3000,12 @@
         <v>212</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="330" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" ht="378" x14ac:dyDescent="0.3">
       <c r="A10" s="16">
         <v>2</v>
       </c>
-      <c r="B10" s="47"/>
-      <c r="C10" s="59"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="60"/>
       <c r="D10" s="17" t="s">
         <v>14</v>
       </c>
@@ -3028,12 +3025,12 @@
         <v>213</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="75" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" ht="110.25" x14ac:dyDescent="0.3">
       <c r="A11" s="16">
         <v>3</v>
       </c>
-      <c r="B11" s="47"/>
-      <c r="C11" s="59"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="60"/>
       <c r="D11" s="17" t="s">
         <v>13</v>
       </c>
@@ -3053,12 +3050,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="180" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" ht="236.25" x14ac:dyDescent="0.3">
       <c r="A12" s="16">
         <v>4</v>
       </c>
-      <c r="B12" s="47"/>
-      <c r="C12" s="59"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="60"/>
       <c r="D12" s="17" t="s">
         <v>16</v>
       </c>
@@ -3078,12 +3075,12 @@
         <v>214</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="240" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" ht="252" x14ac:dyDescent="0.3">
       <c r="A13" s="16">
         <v>5</v>
       </c>
-      <c r="B13" s="47"/>
-      <c r="C13" s="59"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="60"/>
       <c r="D13" s="17" t="s">
         <v>42</v>
       </c>
@@ -3103,66 +3100,66 @@
         <v>216</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="400.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="46">
+    <row r="14" spans="1:11" ht="400.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="47">
         <v>6</v>
       </c>
-      <c r="B14" s="47"/>
-      <c r="C14" s="58" t="s">
+      <c r="B14" s="48"/>
+      <c r="C14" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="D14" s="49" t="s">
+      <c r="D14" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="52" t="s">
+      <c r="E14" s="53" t="s">
         <v>92</v>
       </c>
-      <c r="F14" s="52" t="s">
+      <c r="F14" s="53" t="s">
         <v>161</v>
       </c>
-      <c r="G14" s="55" t="s">
-        <v>160</v>
-      </c>
-      <c r="H14" s="43" t="s">
+      <c r="G14" s="56" t="s">
+        <v>160</v>
+      </c>
+      <c r="H14" s="44" t="s">
         <v>228</v>
       </c>
-      <c r="I14" s="43" t="s">
+      <c r="I14" s="44" t="s">
         <v>226</v>
       </c>
-      <c r="J14" s="43" t="s">
+      <c r="J14" s="44" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="409.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="47"/>
-      <c r="B15" s="47"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
-      <c r="J15" s="44"/>
-    </row>
-    <row r="16" spans="1:11" ht="409.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="48"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="45"/>
-    </row>
-    <row r="17" spans="1:10" ht="409.6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" ht="409.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="48"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="45"/>
+    </row>
+    <row r="16" spans="1:11" ht="409.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="49"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+    </row>
+    <row r="17" spans="1:10" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A17" s="16">
         <v>7</v>
       </c>
-      <c r="B17" s="47"/>
-      <c r="C17" s="59"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="60"/>
       <c r="D17" s="41" t="s">
         <v>234</v>
       </c>
@@ -3175,7 +3172,7 @@
       <c r="G17" s="42" t="s">
         <v>161</v>
       </c>
-      <c r="H17" s="62" t="s">
+      <c r="H17" s="40" t="s">
         <v>245</v>
       </c>
       <c r="I17" s="40" t="s">
@@ -3185,12 +3182,12 @@
         <v>239</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="135" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:10" ht="173.25" x14ac:dyDescent="0.3">
       <c r="A18" s="16">
         <v>8</v>
       </c>
-      <c r="B18" s="47"/>
-      <c r="C18" s="59"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="60"/>
       <c r="D18" s="17" t="s">
         <v>29</v>
       </c>
@@ -3210,12 +3207,12 @@
         <v>138</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="105" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:10" ht="110.25" x14ac:dyDescent="0.3">
       <c r="A19" s="16">
         <v>9</v>
       </c>
-      <c r="B19" s="47"/>
-      <c r="C19" s="59"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="60"/>
       <c r="D19" s="17" t="s">
         <v>17</v>
       </c>
@@ -3235,11 +3232,11 @@
         <v>215</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="45" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:10" ht="63" x14ac:dyDescent="0.3">
       <c r="A20" s="16">
         <v>10</v>
       </c>
-      <c r="B20" s="47"/>
+      <c r="B20" s="48"/>
       <c r="C20" s="17" t="s">
         <v>0</v>
       </c>
@@ -3262,12 +3259,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="105" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:10" ht="110.25" x14ac:dyDescent="0.3">
       <c r="A21" s="16">
         <v>11</v>
       </c>
-      <c r="B21" s="47"/>
-      <c r="C21" s="58" t="s">
+      <c r="B21" s="48"/>
+      <c r="C21" s="59" t="s">
         <v>3</v>
       </c>
       <c r="D21" s="17" t="s">
@@ -3289,12 +3286,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="75" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:10" ht="110.25" x14ac:dyDescent="0.3">
       <c r="A22" s="16">
         <v>12</v>
       </c>
-      <c r="B22" s="47"/>
-      <c r="C22" s="60"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="61"/>
       <c r="D22" s="17" t="s">
         <v>6</v>
       </c>
@@ -3314,11 +3311,11 @@
         <v>79</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="150" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:10" ht="204.75" x14ac:dyDescent="0.3">
       <c r="A23" s="16">
         <v>13</v>
       </c>
-      <c r="B23" s="47"/>
+      <c r="B23" s="48"/>
       <c r="C23" s="19" t="s">
         <v>18</v>
       </c>
@@ -3341,11 +3338,11 @@
         <v>140</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="105" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:10" ht="141.75" x14ac:dyDescent="0.3">
       <c r="A24" s="16">
         <v>14</v>
       </c>
-      <c r="B24" s="47"/>
+      <c r="B24" s="48"/>
       <c r="C24" s="20" t="s">
         <v>7</v>
       </c>
@@ -3371,12 +3368,12 @@
         <v>179</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="105" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:10" ht="110.25" x14ac:dyDescent="0.3">
       <c r="A25" s="16">
         <v>15</v>
       </c>
-      <c r="B25" s="47"/>
-      <c r="C25" s="58" t="s">
+      <c r="B25" s="48"/>
+      <c r="C25" s="59" t="s">
         <v>44</v>
       </c>
       <c r="D25" s="17" t="s">
@@ -3398,12 +3395,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="75" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:10" ht="110.25" x14ac:dyDescent="0.3">
       <c r="A26" s="16">
         <v>16</v>
       </c>
-      <c r="B26" s="47"/>
-      <c r="C26" s="59"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="60"/>
       <c r="D26" s="17" t="s">
         <v>45</v>
       </c>
@@ -3423,12 +3420,12 @@
         <v>142</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="120" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:10" ht="157.5" x14ac:dyDescent="0.3">
       <c r="A27" s="16">
         <v>17</v>
       </c>
-      <c r="B27" s="47"/>
-      <c r="C27" s="59"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="60"/>
       <c r="D27" s="17" t="s">
         <v>36</v>
       </c>
@@ -3451,12 +3448,12 @@
         <v>194</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="60" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:10" ht="78.75" x14ac:dyDescent="0.3">
       <c r="A28" s="16">
         <v>18</v>
       </c>
-      <c r="B28" s="47"/>
-      <c r="C28" s="58" t="s">
+      <c r="B28" s="48"/>
+      <c r="C28" s="59" t="s">
         <v>37</v>
       </c>
       <c r="D28" s="17" t="s">
@@ -3481,12 +3478,12 @@
         <v>164</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="45" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:10" ht="47.25" x14ac:dyDescent="0.3">
       <c r="A29" s="16">
         <v>19</v>
       </c>
-      <c r="B29" s="47"/>
-      <c r="C29" s="60"/>
+      <c r="B29" s="48"/>
+      <c r="C29" s="61"/>
       <c r="D29" s="17" t="s">
         <v>39</v>
       </c>
@@ -3506,11 +3503,11 @@
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="105" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:10" ht="110.25" x14ac:dyDescent="0.3">
       <c r="A30" s="16">
         <v>20</v>
       </c>
-      <c r="B30" s="47"/>
+      <c r="B30" s="48"/>
       <c r="C30" s="17" t="s">
         <v>68</v>
       </c>
@@ -3536,11 +3533,11 @@
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="75" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:10" ht="94.5" x14ac:dyDescent="0.3">
       <c r="A31" s="16">
         <v>21</v>
       </c>
-      <c r="B31" s="47"/>
+      <c r="B31" s="48"/>
       <c r="C31" s="17" t="s">
         <v>52</v>
       </c>
@@ -3566,11 +3563,11 @@
         <v>87</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="60" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:10" ht="94.5" x14ac:dyDescent="0.3">
       <c r="A32" s="16">
         <v>22</v>
       </c>
-      <c r="B32" s="47"/>
+      <c r="B32" s="48"/>
       <c r="C32" s="17" t="s">
         <v>74</v>
       </c>
@@ -3593,11 +3590,11 @@
         <v>99</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="45" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:11" ht="47.25" x14ac:dyDescent="0.3">
       <c r="A33" s="16">
         <v>23</v>
       </c>
-      <c r="B33" s="47"/>
+      <c r="B33" s="48"/>
       <c r="C33" s="21" t="s">
         <v>19</v>
       </c>
@@ -3623,12 +3620,12 @@
         <v>187</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="60" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:11" ht="63" x14ac:dyDescent="0.3">
       <c r="A34" s="16">
         <v>24</v>
       </c>
-      <c r="B34" s="47"/>
-      <c r="C34" s="58" t="s">
+      <c r="B34" s="48"/>
+      <c r="C34" s="59" t="s">
         <v>26</v>
       </c>
       <c r="D34" s="17" t="s">
@@ -3650,12 +3647,12 @@
         <v>144</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="75" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:11" ht="94.5" x14ac:dyDescent="0.3">
       <c r="A35" s="16">
         <v>25</v>
       </c>
-      <c r="B35" s="48"/>
-      <c r="C35" s="60"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="61"/>
       <c r="D35" s="17" t="s">
         <v>28</v>
       </c>
@@ -3675,7 +3672,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="36"/>
       <c r="B36" s="1"/>
       <c r="C36" s="22"/>
@@ -3688,14 +3685,14 @@
       <c r="J36" s="38"/>
       <c r="K36" s="29"/>
     </row>
-    <row r="37" spans="1:11" ht="315" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:11" ht="346.5" x14ac:dyDescent="0.3">
       <c r="A37" s="16">
         <v>26</v>
       </c>
-      <c r="B37" s="46" t="s">
+      <c r="B37" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="C37" s="58" t="s">
+      <c r="C37" s="59" t="s">
         <v>73</v>
       </c>
       <c r="D37" s="17" t="s">
@@ -3720,12 +3717,12 @@
         <v>233</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="90" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:11" ht="110.25" x14ac:dyDescent="0.3">
       <c r="A38" s="16">
         <v>27</v>
       </c>
-      <c r="B38" s="47"/>
-      <c r="C38" s="59"/>
+      <c r="B38" s="48"/>
+      <c r="C38" s="60"/>
       <c r="D38" s="17" t="s">
         <v>31</v>
       </c>
@@ -3745,9 +3742,9 @@
         <v>101</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="150" x14ac:dyDescent="0.4">
-      <c r="B39" s="47"/>
-      <c r="C39" s="59"/>
+    <row r="39" spans="1:11" ht="189" x14ac:dyDescent="0.3">
+      <c r="B39" s="48"/>
+      <c r="C39" s="60"/>
       <c r="D39" s="17" t="s">
         <v>219</v>
       </c>
@@ -3770,12 +3767,12 @@
         <v>113</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="195" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:11" ht="220.5" x14ac:dyDescent="0.3">
       <c r="A40" s="16">
         <v>28</v>
       </c>
-      <c r="B40" s="47"/>
-      <c r="C40" s="59"/>
+      <c r="B40" s="48"/>
+      <c r="C40" s="60"/>
       <c r="D40" s="17" t="s">
         <v>230</v>
       </c>
@@ -3794,16 +3791,16 @@
       <c r="I40" s="18" t="s">
         <v>243</v>
       </c>
-      <c r="J40" s="61" t="s">
+      <c r="J40" s="43" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="240" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:11" ht="252" x14ac:dyDescent="0.3">
       <c r="A41" s="16">
         <v>29</v>
       </c>
-      <c r="B41" s="47"/>
-      <c r="C41" s="59"/>
+      <c r="B41" s="48"/>
+      <c r="C41" s="60"/>
       <c r="D41" s="17" t="s">
         <v>33</v>
       </c>
@@ -3826,12 +3823,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="60" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:11" ht="94.5" x14ac:dyDescent="0.3">
       <c r="A42" s="16">
         <v>30</v>
       </c>
-      <c r="B42" s="47"/>
-      <c r="C42" s="59"/>
+      <c r="B42" s="48"/>
+      <c r="C42" s="60"/>
       <c r="D42" s="17" t="s">
         <v>110</v>
       </c>
@@ -3854,12 +3851,12 @@
         <v>114</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="165" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:11" ht="189" x14ac:dyDescent="0.3">
       <c r="A43" s="16">
         <v>31</v>
       </c>
-      <c r="B43" s="47"/>
-      <c r="C43" s="59"/>
+      <c r="B43" s="48"/>
+      <c r="C43" s="60"/>
       <c r="D43" s="17" t="s">
         <v>32</v>
       </c>
@@ -3879,12 +3876,12 @@
         <v>218</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="135" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:11" ht="157.5" x14ac:dyDescent="0.3">
       <c r="A44" s="16">
         <v>32</v>
       </c>
-      <c r="B44" s="47"/>
-      <c r="C44" s="59"/>
+      <c r="B44" s="48"/>
+      <c r="C44" s="60"/>
       <c r="D44" s="17" t="s">
         <v>22</v>
       </c>
@@ -3907,12 +3904,12 @@
         <v>165</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="150" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:11" ht="173.25" x14ac:dyDescent="0.3">
       <c r="A45" s="16">
         <v>33</v>
       </c>
-      <c r="B45" s="47"/>
-      <c r="C45" s="59"/>
+      <c r="B45" s="48"/>
+      <c r="C45" s="60"/>
       <c r="D45" s="17" t="s">
         <v>57</v>
       </c>
@@ -3935,11 +3932,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="255" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:11" ht="283.5" x14ac:dyDescent="0.3">
       <c r="A46" s="16">
         <v>34</v>
       </c>
-      <c r="B46" s="47"/>
+      <c r="B46" s="48"/>
       <c r="C46" s="17" t="s">
         <v>11</v>
       </c>
@@ -3965,12 +3962,12 @@
         <v>236</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="60" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:11" ht="78.75" x14ac:dyDescent="0.3">
       <c r="A47" s="16">
         <v>35</v>
       </c>
-      <c r="B47" s="47"/>
-      <c r="C47" s="58" t="s">
+      <c r="B47" s="48"/>
+      <c r="C47" s="59" t="s">
         <v>52</v>
       </c>
       <c r="D47" s="17" t="s">
@@ -3995,12 +3992,12 @@
         <v>166</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="45" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:11" ht="47.25" x14ac:dyDescent="0.3">
       <c r="A48" s="16">
         <v>36</v>
       </c>
-      <c r="B48" s="47"/>
-      <c r="C48" s="59"/>
+      <c r="B48" s="48"/>
+      <c r="C48" s="60"/>
       <c r="D48" s="17" t="s">
         <v>46</v>
       </c>
@@ -4020,12 +4017,12 @@
         <v>118</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="90" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:11" ht="94.5" x14ac:dyDescent="0.3">
       <c r="A49" s="16">
         <v>37</v>
       </c>
-      <c r="B49" s="47"/>
-      <c r="C49" s="59"/>
+      <c r="B49" s="48"/>
+      <c r="C49" s="60"/>
       <c r="D49" s="17" t="s">
         <v>220</v>
       </c>
@@ -4048,11 +4045,11 @@
         <v>167</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="90" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:11" ht="110.25" x14ac:dyDescent="0.3">
       <c r="A50" s="16">
         <v>38</v>
       </c>
-      <c r="B50" s="47"/>
+      <c r="B50" s="48"/>
       <c r="C50" s="20" t="s">
         <v>9</v>
       </c>
@@ -4075,12 +4072,12 @@
         <v>120</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="45" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:11" ht="47.25" x14ac:dyDescent="0.3">
       <c r="A51" s="16">
         <v>39</v>
       </c>
-      <c r="B51" s="47"/>
-      <c r="C51" s="58" t="s">
+      <c r="B51" s="48"/>
+      <c r="C51" s="59" t="s">
         <v>19</v>
       </c>
       <c r="D51" s="17" t="s">
@@ -4105,12 +4102,12 @@
         <v>124</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="105" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:11" ht="110.25" x14ac:dyDescent="0.3">
       <c r="A52" s="16">
         <v>40</v>
       </c>
-      <c r="B52" s="47"/>
-      <c r="C52" s="60"/>
+      <c r="B52" s="48"/>
+      <c r="C52" s="61"/>
       <c r="D52" s="17" t="s">
         <v>35</v>
       </c>
@@ -4133,11 +4130,11 @@
         <v>126</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="45" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:11" ht="47.25" x14ac:dyDescent="0.3">
       <c r="A53" s="16">
         <v>41</v>
       </c>
-      <c r="B53" s="47"/>
+      <c r="B53" s="48"/>
       <c r="C53" s="19" t="s">
         <v>121</v>
       </c>
@@ -4163,11 +4160,11 @@
         <v>168</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="120" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:11" ht="126" x14ac:dyDescent="0.3">
       <c r="A54" s="16">
         <v>42</v>
       </c>
-      <c r="B54" s="47"/>
+      <c r="B54" s="48"/>
       <c r="C54" s="17" t="s">
         <v>59</v>
       </c>
@@ -4190,11 +4187,11 @@
         <v>137</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="60" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:11" ht="63" x14ac:dyDescent="0.3">
       <c r="A55" s="16">
         <v>43</v>
       </c>
-      <c r="B55" s="47"/>
+      <c r="B55" s="48"/>
       <c r="C55" s="17" t="s">
         <v>43</v>
       </c>
@@ -4217,11 +4214,11 @@
         <v>129</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="75" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:11" ht="78.75" x14ac:dyDescent="0.3">
       <c r="A56" s="16">
         <v>44</v>
       </c>
-      <c r="B56" s="47"/>
+      <c r="B56" s="48"/>
       <c r="C56" s="21" t="s">
         <v>24</v>
       </c>
@@ -4247,12 +4244,12 @@
         <v>124</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="195" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:11" ht="204.75" x14ac:dyDescent="0.3">
       <c r="A57" s="16">
         <v>45</v>
       </c>
-      <c r="B57" s="47"/>
-      <c r="C57" s="58" t="s">
+      <c r="B57" s="48"/>
+      <c r="C57" s="59" t="s">
         <v>25</v>
       </c>
       <c r="D57" s="17" t="s">
@@ -4277,12 +4274,12 @@
         <v>169</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="150" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:11" ht="157.5" x14ac:dyDescent="0.3">
       <c r="A58" s="16">
         <v>46</v>
       </c>
-      <c r="B58" s="47"/>
-      <c r="C58" s="59"/>
+      <c r="B58" s="48"/>
+      <c r="C58" s="60"/>
       <c r="D58" s="17" t="s">
         <v>63</v>
       </c>
@@ -4305,12 +4302,12 @@
         <v>170</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="105" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:11" ht="110.25" x14ac:dyDescent="0.3">
       <c r="A59" s="16">
         <v>47</v>
       </c>
-      <c r="B59" s="47"/>
-      <c r="C59" s="58" t="s">
+      <c r="B59" s="48"/>
+      <c r="C59" s="59" t="s">
         <v>74</v>
       </c>
       <c r="D59" s="17" t="s">
@@ -4332,12 +4329,12 @@
         <v>224</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="105" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:11" ht="110.25" x14ac:dyDescent="0.3">
       <c r="A60" s="16">
         <v>48</v>
       </c>
-      <c r="B60" s="47"/>
-      <c r="C60" s="59"/>
+      <c r="B60" s="48"/>
+      <c r="C60" s="60"/>
       <c r="D60" s="17" t="s">
         <v>48</v>
       </c>
@@ -4357,12 +4354,12 @@
         <v>131</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="60" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:11" ht="78.75" x14ac:dyDescent="0.3">
       <c r="A61" s="16">
         <v>49</v>
       </c>
-      <c r="B61" s="48"/>
-      <c r="C61" s="60"/>
+      <c r="B61" s="49"/>
+      <c r="C61" s="61"/>
       <c r="D61" s="17" t="s">
         <v>49</v>
       </c>
@@ -4382,7 +4379,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="10"/>
       <c r="B62" s="1"/>
       <c r="C62" s="22"/>
@@ -4395,14 +4392,14 @@
       <c r="J62" s="11"/>
       <c r="K62" s="29"/>
     </row>
-    <row r="63" spans="1:11" ht="75" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:11" ht="78.75" x14ac:dyDescent="0.3">
       <c r="A63" s="16">
         <v>50</v>
       </c>
-      <c r="B63" s="46" t="s">
+      <c r="B63" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="C63" s="58" t="s">
+      <c r="C63" s="59" t="s">
         <v>44</v>
       </c>
       <c r="D63" s="17" t="s">
@@ -4427,12 +4424,12 @@
         <v>171</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="45" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:11" ht="47.25" x14ac:dyDescent="0.3">
       <c r="A64" s="16">
         <v>51</v>
       </c>
-      <c r="B64" s="47"/>
-      <c r="C64" s="59"/>
+      <c r="B64" s="48"/>
+      <c r="C64" s="60"/>
       <c r="D64" s="17" t="s">
         <v>105</v>
       </c>
@@ -4455,12 +4452,12 @@
         <v>172</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="45" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:10" ht="47.25" x14ac:dyDescent="0.3">
       <c r="A65" s="16">
         <v>52</v>
       </c>
-      <c r="B65" s="47"/>
-      <c r="C65" s="59"/>
+      <c r="B65" s="48"/>
+      <c r="C65" s="60"/>
       <c r="D65" s="17" t="s">
         <v>109</v>
       </c>
@@ -4483,12 +4480,12 @@
         <v>133</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="150" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:10" ht="157.5" x14ac:dyDescent="0.3">
       <c r="A66" s="16">
         <v>53</v>
       </c>
-      <c r="B66" s="47"/>
-      <c r="C66" s="58" t="s">
+      <c r="B66" s="48"/>
+      <c r="C66" s="59" t="s">
         <v>67</v>
       </c>
       <c r="D66" s="17" t="s">
@@ -4513,12 +4510,12 @@
         <v>135</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="135" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:10" ht="141.75" x14ac:dyDescent="0.3">
       <c r="A67" s="16">
         <v>54</v>
       </c>
-      <c r="B67" s="47"/>
-      <c r="C67" s="59"/>
+      <c r="B67" s="48"/>
+      <c r="C67" s="60"/>
       <c r="D67" s="17" t="s">
         <v>107</v>
       </c>
@@ -4541,12 +4538,12 @@
         <v>173</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="150" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:10" ht="173.25" x14ac:dyDescent="0.3">
       <c r="A68" s="16">
         <v>55</v>
       </c>
-      <c r="B68" s="47"/>
-      <c r="C68" s="60"/>
+      <c r="B68" s="48"/>
+      <c r="C68" s="61"/>
       <c r="D68" s="17" t="s">
         <v>108</v>
       </c>
@@ -4569,11 +4566,11 @@
         <v>174</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="135" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:10" ht="141.75" x14ac:dyDescent="0.3">
       <c r="A69" s="16">
         <v>56</v>
       </c>
-      <c r="B69" s="47"/>
+      <c r="B69" s="48"/>
       <c r="C69" s="17" t="s">
         <v>37</v>
       </c>
